--- a/DG/cxml/Container_map.xlsx
+++ b/DG/cxml/Container_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssc.achauhan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.97.65.50\Public Folder\Ops OA\DG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82FCF99-4F0D-4A71-9E01-AF3D7AEB9D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F9D70C-575E-419F-AD45-00BDEB52B3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Container_size" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
   <si>
     <t>22G1</t>
   </si>
@@ -86,9 +85,6 @@
     <t>22T3</t>
   </si>
   <si>
-    <t>22T6 N.O.R.|22T1 N.O.R.|20TK N.O.R.</t>
-  </si>
-  <si>
     <t>22T6</t>
   </si>
   <si>
@@ -104,9 +100,6 @@
     <t>22K2</t>
   </si>
   <si>
-    <t>22K2 N.O.R.</t>
-  </si>
-  <si>
     <t>40HC</t>
   </si>
   <si>
@@ -192,6 +185,21 @@
   </si>
   <si>
     <t>2210</t>
+  </si>
+  <si>
+    <t>22T6 N.O.R.|22T1 N.O.R.|20TK N.O.R.|22K2 N.O.R.|22T0 N.O.R.</t>
+  </si>
+  <si>
+    <t>22K2 N.O.R. | 22T2 N.O.R.</t>
+  </si>
+  <si>
+    <t>42G1 | 40ST</t>
+  </si>
+  <si>
+    <t>4510 | 40HC</t>
+  </si>
+  <si>
+    <t>45R1 | 40RH Operated</t>
   </si>
 </sst>
 </file>
@@ -227,8 +235,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,15 +523,17 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -528,7 +541,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -536,7 +549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -544,7 +557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -552,15 +565,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -568,15 +581,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -584,7 +597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -592,7 +605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -600,7 +613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -608,236 +621,236 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>4510</v>
+      </c>
+      <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>4510</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>34</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>37</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>39</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>40</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>42</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>43</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>44</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>45</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>46</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>47</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>48</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>49</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/DG/cxml/Container_map.xlsx
+++ b/DG/cxml/Container_map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.97.65.50\Public Folder\Ops OA\DG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssc.achauhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F9D70C-575E-419F-AD45-00BDEB52B3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAEB977E-F900-41AD-9618-8E4C1072108A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Container_size" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>22G1</t>
   </si>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>45R1 | 40RH Operated</t>
+  </si>
+  <si>
+    <t>48K8</t>
+  </si>
+  <si>
+    <t>4530</t>
+  </si>
+  <si>
+    <t>45R5</t>
+  </si>
+  <si>
+    <t>4200</t>
+  </si>
+  <si>
+    <t>4319</t>
   </si>
 </sst>
 </file>
@@ -521,19 +536,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -541,7 +554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -549,7 +562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -557,7 +570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -565,7 +578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -573,7 +586,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -581,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -589,7 +602,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -597,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -605,7 +618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -613,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -621,7 +634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -629,7 +642,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -637,7 +650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -645,7 +658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -653,7 +666,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>4510</v>
       </c>
@@ -661,7 +674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -669,7 +682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -677,7 +690,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -685,7 +698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -693,7 +706,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -701,7 +714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -709,7 +722,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -717,7 +730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -725,7 +738,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -733,7 +746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -741,7 +754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -749,7 +762,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -757,7 +770,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -765,7 +778,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -773,7 +786,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -781,7 +794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -789,7 +802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -797,7 +810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -805,7 +818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -813,7 +826,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -821,7 +834,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -829,7 +842,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -837,7 +850,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -845,12 +858,52 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>49</v>
       </c>
       <c r="B40" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
